--- a/data/tehilim-data/3.xlsx
+++ b/data/tehilim-data/3.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="126">
   <si>
     <t>original</t>
   </si>
@@ -85,10 +85,16 @@
     <t>многочисленны</t>
   </si>
   <si>
-    <t>קָמִים עָלָי</t>
-  </si>
-  <si>
-    <t>восстающие на меня</t>
+    <t xml:space="preserve">קָמִים </t>
+  </si>
+  <si>
+    <t xml:space="preserve">восстающие </t>
+  </si>
+  <si>
+    <t>עָלָי</t>
+  </si>
+  <si>
+    <t>на меня</t>
   </si>
   <si>
     <t>ג</t>
@@ -109,10 +115,16 @@
     <t>душе моей</t>
   </si>
   <si>
-    <t>אֵין-יְשׁוּעָתָה</t>
-  </si>
-  <si>
-    <t>нет спасения</t>
+    <t>אֵין</t>
+  </si>
+  <si>
+    <t xml:space="preserve">нет </t>
+  </si>
+  <si>
+    <t>יְשׁוּעָתָה</t>
+  </si>
+  <si>
+    <t>спасения</t>
   </si>
   <si>
     <t>לּוֹ</t>
@@ -142,10 +154,16 @@
     <t>Но ты</t>
   </si>
   <si>
-    <t>מָגֵן בַּעֲדִי</t>
-  </si>
-  <si>
-    <t>щит мой</t>
+    <t>בַּעֲדִי</t>
+  </si>
+  <si>
+    <t>мой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מָגֵן </t>
+  </si>
+  <si>
+    <t xml:space="preserve">щит </t>
   </si>
   <si>
     <t>כְּבוֹדִי</t>
@@ -328,10 +346,16 @@
     <t>по щеке</t>
   </si>
   <si>
-    <t>שִׁנֵּי רְשָׁעִים</t>
-  </si>
-  <si>
-    <t>зубы злодеев</t>
+    <t xml:space="preserve">שִׁנֵּי </t>
+  </si>
+  <si>
+    <t xml:space="preserve">зубы </t>
+  </si>
+  <si>
+    <t>רְשָׁעִים</t>
+  </si>
+  <si>
+    <t>злодеев</t>
   </si>
   <si>
     <t>שִׁבַּרְתָּ</t>
@@ -762,23 +786,23 @@
       <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="4">
-        <v>3.0</v>
+      <c r="B15" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="B16" s="4">
+        <v>3.0</v>
       </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>29</v>
@@ -834,44 +858,44 @@
       <c r="A23" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="4">
-        <v>4.0</v>
+      <c r="B23" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>17</v>
+        <v>44</v>
+      </c>
+      <c r="B25" s="4">
+        <v>4.0</v>
       </c>
       <c r="C25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="C27" s="2"/>
     </row>
@@ -897,35 +921,35 @@
       <c r="A30" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="4">
-        <v>5.0</v>
+      <c r="B30" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" s="4" t="s">
         <v>57</v>
+      </c>
+      <c r="B33" s="4">
+        <v>5.0</v>
       </c>
       <c r="C33" s="2"/>
     </row>
@@ -958,46 +982,46 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="C37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" s="4">
-        <v>6.0</v>
+        <v>66</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="C38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="C40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B41" s="4" t="s">
         <v>70</v>
+      </c>
+      <c r="B41" s="4">
+        <v>6.0</v>
       </c>
       <c r="C41" s="2"/>
     </row>
@@ -1032,35 +1056,35 @@
       <c r="A45" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B45" s="4">
-        <v>7.0</v>
+      <c r="B45" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="C45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B48" s="4" t="s">
         <v>83</v>
+      </c>
+      <c r="B48" s="4">
+        <v>7.0</v>
       </c>
       <c r="C48" s="2"/>
     </row>
@@ -1095,53 +1119,53 @@
       <c r="A52" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B52" s="4">
-        <v>8.0</v>
+      <c r="B52" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="C52" s="2"/>
     </row>
     <row r="53">
       <c r="A53" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C53" s="2"/>
     </row>
     <row r="54">
       <c r="A54" s="3" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="C54" s="2"/>
     </row>
     <row r="55">
       <c r="A55" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
+      </c>
+      <c r="B55" s="4">
+        <v>8.0</v>
       </c>
       <c r="C55" s="2"/>
     </row>
     <row r="56">
       <c r="A56" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C56" s="2"/>
     </row>
     <row r="57">
       <c r="A57" s="3" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="C57" s="2"/>
     </row>
@@ -1194,55 +1218,91 @@
       <c r="A63" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B63" s="4">
-        <v>9.0</v>
+      <c r="B63" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="C63" s="2"/>
     </row>
     <row r="64">
       <c r="A64" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C64" s="2"/>
     </row>
     <row r="65">
       <c r="A65" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C65" s="2"/>
     </row>
     <row r="66">
       <c r="A66" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C66" s="2"/>
     </row>
     <row r="67">
       <c r="A67" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B67" s="4" t="s">
         <v>117</v>
+      </c>
+      <c r="B67" s="4">
+        <v>9.0</v>
       </c>
       <c r="C67" s="2"/>
     </row>
     <row r="68">
       <c r="A68" s="3" t="s">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="C68" s="2"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C69" s="2"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C70" s="2"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C71" s="2"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C72" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
